--- a/nuon/instagram_comments_on._.riwon.xlsx
+++ b/nuon/instagram_comments_on._.riwon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O191"/>
+  <dimension ref="A1:O300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>18264508027259184</t>
+          <t>1.8264508027259184e+16</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>18088859602554036</t>
+          <t>1.808885960255404e+16</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -12060,7 +12060,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>17931466046880968</t>
+          <t>1.7931466046880968e+16</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>18055952789002209</t>
+          <t>1.805595278900221e+16</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>17850448971390539</t>
+          <t>1.785044897139054e+16</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>18049199168514883</t>
+          <t>1.8049199168514884e+16</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>17902681038015967</t>
+          <t>1.7902681038015968e+16</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>18069768862789196</t>
+          <t>1.80697688627892e+16</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18052582508287979</t>
+          <t>1.8052582508287976e+16</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>18088492642545275</t>
+          <t>1.808849264254528e+16</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -13045,6 +13045,7229 @@
         </is>
       </c>
       <c r="O191" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>18027150284314668</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>@luv_t.s.r 어후, 저 언제 이사가요ㅎㅎ 알게모르게 찌끔찌끔 바뀌고있어요💗</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>@luv_t.s.r</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1.795486202690832e+16</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>1737535300</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>17954862026908321</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>리원님네 집 탐방 가고 싶네요 ㅎㅎㅎ❤️</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>1737535206</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>5630247286</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>luv_t.s.r</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>17933781272977370</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>@hongmi.s2 홍미님:)💗💗💗💗</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>@hongmi.s2</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1.8074872699724948e+16</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>1737527383</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>18065390095846577</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>@velvet0125 @ikeakr 관절 스탠드예요🩵 그나저나 프사 넘 귀욥습니다아😍</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>@velvet0125, @ikeakr</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1.7914112541052148e+16</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>1737527069</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>18074872699724947</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>저두... 정방형러버인데😂😂😂 길쭉이 썩 맘에 들진 않지만 바뀐대로 적응해나갈수밖에...ㅎㅎㅎ 리원님네는 정방형도 길쭉이도 다 이쁘게 잘나오는걸요😍</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>1737525535</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>71587494135</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>hongmi.s2</t>
+        </is>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>홍미네 ʚ◡̈ɞ</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DFHQ1vcTuAo</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>17914112541052149</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>스탠드 궁금해요😍</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>1737524610</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>4824141896</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>velvet0125</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>떡세마리🍡</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>18151818826354917</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>저기저2단교구장은뭘까요...?</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>1737984106</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>62564341649</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>23tiger_mom</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>후니훈 / 김지은</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>17961311228850736</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>스텐드는 어디껀가요^^?</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>1737771096</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>3462635514</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>sun0994</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>한선희</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>18059700175758653</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>@jeeeee_nyyyyy 이든이는 예쁜 엄마 있어 좋겠다😍😍</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>@jeeeee_nyyyyy</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1.7847092217371744e+16</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>1737428605</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>17847092217371744</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>은요는 좋겠다앙😍😍😍</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>1737415558</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>368236353</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>jeeeee_nyyyyy</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>🎀 백̽주̽부̽      ᴇsᴛᴘ</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>17997179996725855</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>@hongmi.s2 홍미님 달달 신혼 좋겠다아아:)🩵💗🙏🏻</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>@hongmi.s2</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1.816637932332637e+16</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>1737413756</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>18377237152117316</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>@ikeakr 제품이구요:) 여러 제품 자세한 구매처 정보는 프로필링크에 정리해두었어요🩵</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>@ikeakr</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1.804832884996369e+16</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>1737413685</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>18302704585236382</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>@jjong_8686 @hanssem_official 한샘샘키즈 수납장이구요. 자세한 구매처 정보는 프로필링크에 정리해두었어요🩵</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>@jjong_8686, @hanssem_official</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1.805486246929301e+16</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>1737413650</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>18048328849963694</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>혹시 셈수판 정보 알수 있을까용?</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>1737405422</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>23567374848</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>seol.le_</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>설레🧡</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>18054862469293015</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>창가쪽 이단 교구장 정보 알슈있을까요?</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>1737392679</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>1047146607</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>jjong_8686</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>17921790576014991</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>@on._.riwon 감사합니다!</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1.7909934953995052e+16</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>1737372373</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>56561189562</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>happleeverafter</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>17909934953995051</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>@happleeverafter @gonggan_lighting 에서 구입했어요💛</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>@happleeverafter, @gonggan_lighting</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1.809927100049244e+16</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>1737368478</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>18099271000492433</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>천장에 있는 비행기 정보 알 수 있을까요오🥹</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>1737367341</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>56561189562</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>happleeverafter</t>
+        </is>
+      </c>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>DFCWb3UTDd7</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>18166379323326368</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>은요는 좋겠다아~~~🩵🧡</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>1737364122</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>71587494135</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>hongmi.s2</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>홍미네 ʚ◡̈ɞ</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>18055401826966960</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>@pretty_rang 여긴 눈이 많이 안오는 지역이라 더 예뻐보이더라구요:)🗻🤍</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>@pretty_rang</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1.8112146082445844e+16</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>1737075699</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>17912304566962899</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>@holiday_house_lw 눈이 많이 내리는 지역이 아니라서 더 애틋하게(?) 예쁜거같아요:)🗻🤍</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>@holiday_house_lw</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1.7873384616255282e+16</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>1737075507</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>17875162794167181</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>@hongmi.s2 홍미님 신혼집보니 마음이 퐁퐁퐁해져요💗🤍</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>@hongmi.s2</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1.7899664484076684e+16</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>1737075412</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>17862185562325477</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>@jeeeee_nyyyyy 제니님 이든이 와와들 무조건 웰컴이쥬💗</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>@jeeeee_nyyyyy</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1.8060327673928144e+16</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>1737075365</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>18060327673928142</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>은요네 놀러가도 되나요 😍</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>1737007460</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>368236353</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>jeeeee_nyyyyy</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>🎀 백̽주̽부̽      ᴇsᴛᴘ</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>17899664484076683</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>오앟....🤍 예쁜 집에서 멋진 뷰 느므 좋을 것 같아요😍</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>1737005319</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>71587494135</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>hongmi.s2</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>홍미네 ʚ◡̈ɞ</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>17873384616255282</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>눈이 많이 오네요! 테이블에서 눈뷰 보시면 넘 행복할 것 같아요❄️❄️</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>1736999678</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>68837910160</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>holiday_house_lw</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>holiday_house_lw</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DE3pKYkTpmI</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>18112146082445845</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>눈이 보슬보슬 내려용 ❄️❄️⛄️ 은요가 눈이 와서 좋아할거 같아용! 집 거실 인테리어까지 올 화이트..🤍</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>1736994733</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>1410864570</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>pretty_rang</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>랑랑💛</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>DEoX6kaTXK6</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>17921206421924982</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>@twomunhee 🩵🤍💙 태양이횽아처럼 귀엽고 멋지게 클거래요💪🏻</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>@twomunhee</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>1.847693741800948e+16</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>1736749785</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>DEoX6kaTXK6</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>18476937418009474</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>칫솔마저 귀엽누😍😍</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>1736686260</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>3161035347</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>twomunhee</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>7년차 육아맘 희야의 가족과 함께 먹고 놀고 쓰고 사는 이야기</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DEjUJU6z6pr</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>18081651799522299</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>진짜.. 언니 애둘 되니 서랍장이 진짜 많이 필요함 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>1736402578</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>4927214820</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>lorl.home</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>로르엘 | 정리정돈•집꾸미기•육아•리빙</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>DEjUJU6z6pr</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>17848559307354623</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>@mylittle_leoh 하우스버디라는곳에서 구입했어요!🫶🏻 프로필링크 실시간정보 클릭하시면 구매처 링크 보실 수 있어요👧🏻</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>@mylittle_leoh</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>1.805987872392721e+16</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>1736328225</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>DEjUJU6z6pr</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>18059878723927213</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>오모나 안에 칸막이까지 완전 완벽 그잡채예요 칸막이 정보도 궁금해요</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>1736327938</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>58687175794</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>mylittle_leoh</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Euum / Leo J. Hyun</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>DEjUJU6z6pr</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>18043307363224552</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>@myeonghyi7252 @morement.official 제품이에요🤍</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>@myeonghyi7252, @morement.official</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>1.7951814539875174e+16</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>1736312664</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>DEjUJU6z6pr</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>17951814539875174</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>서랍장 어디껀가요??</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>1736312518</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>3810058899</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>myeonghyi7252</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>황명희</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>18028988231313277</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>@___zeun___ @modez_home #모데즈 빈백이에요💛</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>#모데즈</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>@___zeun___, @modez_home</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>1.7874159111266566e+16</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>1738278648</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>17874159111266566</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>아기 빈백 스툴?? 정보 알수있을까요??</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>1738249777</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>1290501547</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>___zeun___</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>𝓙𝓲 𝓔𝓾𝓷 𝓒𝓱𝓸𝓲⠀</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>18053263462849775</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>와 정보가 진짜 좋아요ㅈ곧이사가는데  좋은정보 감사해요</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>1736024294</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>8134839186</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>redlove2582</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>bbo~♡♡</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>18050156294487768</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>어디로 가시려고요 지금 집 너무너무 이쁜데😍</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>1736000551</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>368236353</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>jeeeee_nyyyyy</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>🎀 백̽주̽부̽      ᴇsᴛᴘ</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>17946631331925926</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>우왕 그럼 이 집은 제가 사고 싶네용 집 보러 오는 사람들이 기절하겠어요😍</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>1735982855</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>1429803553</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>ellyelly42</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>Elly42</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>DEZCXQyTE_8</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>18044863418187297</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>또 어떤 예쁜집으로 이사가고 싶으신가용~😍 예전에 바다뷰집 너무 예뻐서 팔로우했던 기억이 나네요~🤗</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>1735971417</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>1727487354</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>hl2055</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>햇님💕</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>18106278673464506</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>미술책상? 오른쪽에  정보부탁드려요</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>1738234054</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>38921394841</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>gacc380</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Limji</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>18029899988614932</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>@ksilver1214 @hyundailivart_official 리바트키즈가구예요. 자세한 구매처나 제품정보는 프로필에 정리해두었어요💛</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>@ksilver1214, @hyundailivart_official</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>1.7913265857059958e+16</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>1736140376</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>17913265857059958</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>노란서랍있는 책장 정보 알수 있을까요</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>1736140028</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>1641002019</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>ksilver1214</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>ㅡ</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>18108897259407187</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>안녕하세요 방이 너무 예뻐서 저희 아들 방 정리에 참고하고 있어요😍 혹시 열기구 모빌은 사이즈가 M인가요??</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>1735919361</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>48689850273</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>choi__wjin</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>최우진</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>17956925258751214</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>@haegikitchen 예쁜 말씀 감사합니다🥰🥰</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>@haegikitchen</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1.8050432765089548e+16</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>1735858803</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>18050432765089548</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>동화 속 나오는 집같아요 넘 아기자기 예뻐요 😍</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>1735823351</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>65474959767</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>haegikitchen</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>해지</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>17934442247973072</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>@cho_yoonah_ @woodrabbit_korea 제품이에요💛 제품들 구매처 정보는 프로필 링크에 정리해두었어요:)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>@cho_yoonah_, @woodrabbit_korea</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>1.799350570159246e+16</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>1735369637</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>17993505701592460</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>방 너무 이뻐요~! 혹시 노란 책상의자 어디 제품인지 알수있을까요~?</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>1735368573</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>1419131408</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>cho_yoonah_</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>🤵❤️👰</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>18055287049792570</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>@on._.riwon 감사합니다💛💛💛좋은 하루 보내세요😊😊</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>1.803041981656712e+16</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>1735267498</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>8303902564</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>livart_kids_jeju</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>김채원 제주가구💞</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>18030419816567115</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>@livart_kids_jeju 네넵💛</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>@livart_kids_jeju</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1.806099827272652e+16</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>1735253253</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>18362974873136149</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>@ssun___n 파란 벽거울은 @ikeakr 제품이에요:)💙💙</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>@ssun___n, @ikeakr</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1.8031646630188e+16</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>1735253240</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>18060998272726521</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>안녕하세요😊리바트키즈 책장 저희 펌해도 될까요?🙏🏼✨</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>1735252377</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>8303902564</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>livart_kids_jeju</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>김채원 제주가구💞</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>18031646630187995</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>너무 이뻐요! 저도 나중에 아기방 이렇게 꾸먀주고 싶네여!!! 사진속 궁금한 제품이 있는데 파란꽃모양 거울 정보 알수있을까요!!</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>1735220528</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>1807017272</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>ssun___n</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>sun__n💚</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>18032192345411531</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>@s2s2s2s2s242 감사합니다😍😍</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>@s2s2s2s2s242</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1.8041720366351044e+16</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>1735187706</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>DEBxZhjTQgk</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>18041720366351043</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>넘이뽀용😍</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>1735187253</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>1495807088</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>s2s2s2s2s242</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>유네찌</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>17873724819257947</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>@kimsk819  너원하는 스타일 욕조정리함같은데!</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>@kimsk819</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>1737387741</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>6049163815</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>haeun_k_</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Haeun  Kim</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>18392882260100818</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>스마일타일은 직접 디자인한 후 시공업체에서 해준건가요? 너무 예쁘네요!</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>1737280418</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>31477421860</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>graceoh_summer</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>18453459703067769</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>@boymingu</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>@boymingu</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>1735865147</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>60653851912</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>sihu._.mom</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>18026928935302680</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>@lee_jieunkkk 네 맞아요. 모자이크 타일로 시공했어요💛</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>@lee_jieunkkk</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1.816902313031748e+16</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>1735638732</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>18169023130317477</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>스마일 타일은 직접 저렇게 디자인해서 타일 붙이신걸까요? 넘 귀엽고 이뻐서 궁금해서 여쭤요 ㅎ</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>1735638468</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2099003030</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>lee_jieunkkk</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>LeeJi Eun</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>18062482930857950</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>욕조 샤워기 수전 어디껀지 알 수 있을까요~~?</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>1735544550</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>3753215</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>tina8816</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>18070885255663475</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>@on._.riwon 답변 감사합니다😍</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1.806815624880959e+16</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>1735456108</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>50068711761</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>_ok.n.ok</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>18068156248809590</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>@meteorissocute 아 고거는 목욕놀이컵중 하나예요😀</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>@meteorissocute</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1.8070127809664764e+16</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>1735455838</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>18070127809664763</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>크레용 담겨있는 컵은 정보가 없을까요?🙏🏻</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>1735454216</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>50068711761</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>_ok.n.ok</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>18128589226360185</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>@on._.riwon ㅠㅠ 친절한 답변 넘 감사해요오💚번창하세요🙌🙌</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1.8010122371495436e+16</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>1735192964</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>1464498187</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>jiyu3023</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>최지유</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>18010122371495436</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>@jiyu3023 앗 고건 저는 3M 반투명 테이프 이용했어요ㅎㅎㅎ 완전 잘붙습니당🤍</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>@jiyu3023</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1.802749644828608e+16</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>1735192770</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>18027496448286078</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>@on._.riwon 저는 방수포스터용 ㅠㅠ ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1.809380546850182e+16</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>1735192667</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>1464498187</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>jiyu3023</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>최지유</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>18093805468501821</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>@jiyu3023 어떤거 말씀하실까요? 저는 다른건 다 잘붙었는데 장난감 정리함이 잘 안붙더라구요. 하트(?) 스위치같이 생긴 동그란거 버튼에 압을 채워 붙이니 단단하게 붙었어요! 그리고 붙이기전 타일을 깨끗이 닦아주시면 더 잘붙더라구요🤍</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>@jiyu3023</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1.805290840708413e+16</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>1735192095</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>18052908407084128</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>욕실에 잘 안붙여지는데 어떻게 붙여야 할까용??? ㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>1735190773</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>1464498187</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>jiyu3023</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>최지유</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>18450426208070457</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>@su_su_brother 오 힘나는 댓글 감사해요, 주현님:)💗💗</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>@su_su_brother</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1.8046229528137856e+16</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>1735027873</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>DD8qCTNTIH7</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>18046229528137858</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>오 꿀텐 항상 궁금했는데 ❤️은요맘 최고다용 ❤️</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>1735027343</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>7140051652</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>su_su_brother</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>송주현</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>17895564750134706</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>@on._.riwon 정보 감사합니다!</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1.8163855714325468e+16</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>1735644105</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>2099003030</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>lee_jieunkkk</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>LeeJi Eun</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>18163855714325467</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>@lee_jieunkkk @bobo_official_ 소파입니다☺️🤍</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>@lee_jieunkkk, @bobo_official_</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>2</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>1.807859779361053e+16</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>1735638664</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>18078597793610532</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>쇼파 너무 편하고 좋아보이는데 어느 회사 거 일까요?!</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>1735638515</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>2099003030</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>lee_jieunkkk</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>LeeJi Eun</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>18033276800143374</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>이렇게 넓은 집에서도 옹기종기 모여 노는 귀요미들이네요😍😍 그래서 더 사랑스러운거죠❤️</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>1734403570</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>3642605412</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>gonggan27_toy</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>공간27 ｜ 보드게임 교구 완구</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>18260651380255912</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>@choco_chihuahua_family 그거야 예쁜눈으로 봐주시니까욥💗💗</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>@choco_chihuahua_family</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>1.803934376905692e+16</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>1734140447</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>DDii3iET-OB</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>18039343769056919</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>어쩜 이리 집이 예쁠까요❤️</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>1734139735</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>7448209721</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>choco_chihuahua_family</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>치와와가족 초코똥패밀리 👶🏽</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>18057826219886959</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>@luv_t.s.r 어흥보단 아흥이 잘 어울릴거같됴🐶♥️</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>@luv_t.s.r</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>1.804907641100693e+16</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>1732244821</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>18049076411006929</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>귀여운 어흥이네요 ㅎㅎㅎ❤️ 너무 찰떡으로 귀욤😍</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>1732244617</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>5630247286</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>luv_t.s.r</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>17864894625258849</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>@kerimi_8 귀여오 듁겠오😍</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>@kerimi_8</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>1.8018545288556028e+16</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>1732239443</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>18004427939679364</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>@lang_gi_life 타격감 제로에오!!🦁</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>@lang_gi_life</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>1.807626987758928e+16</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>1732239403</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>17857030554299784</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>@sseul.l 헷 와푸리도 해봤어요. 어흥🦁</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>@sseul.l</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>1.8066124435664496e+16</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>1732239368</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>18066124435664499</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>요게요게 요즘 핫하다던데!! 사자개 ❤️</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>1732233002</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>1794786489</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>sseul.l</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>애기.제리🐶반디 🐈‍⬛</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>18018545288556029</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋ 찰떡이다 완죤😍</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>1732176259</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>5863657313</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>kerimi_8</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>차블리네 :D</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>17848061913346866</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>@wawafamily7 와와들의 매력은 어디까지일까요🤍🤍</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>@wawafamily7</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1.846913183500304e+16</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>1732166868</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>18469131835003033</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>심장에 해로운사진이예요😍😍😍 귀여워어쩔ㅋ</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>1732165725</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>1559481710</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>wawafamily7</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>댕댕라운지 칠둥이네</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>18076269877589280</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>ㅋ제법 맹수같아요 와프라😍</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>1732165020</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>1396980481</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>lang_gi_life</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>둥이랑 랑지 하우스🏡</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>17966597741813522</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>@m4reum2 귀여오 증말🐶🩵</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>@m4reum2</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1.847503586500729e+16</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>1732164397</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>18086249269516433</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>@choco_chihuahua_family 이모 아흥 🦁🦁🤍</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>@choco_chihuahua_family</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>1.8023199032624264e+16</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>1732164340</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>18023199032624262</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>아고 무셔보라❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>1732163854</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>7448209721</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>choco_chihuahua_family</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>치와와가족 초코똥패밀리 👶🏽</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>DCnrrDuz4cp</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>18475035865007294</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>ㅋㅋ왜이렇게 자연스러운겨ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>1732163646</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>1476080545</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>m4reum2</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>❤👨‍👩‍👦‍👦🐶🐶❤</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>18088060435508510</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>우와 너무 이쁘당 🙌🙌</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>1732195426</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>7223640261</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>gukgeumjin_0603</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>국금진</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>18069223822632922</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>너무예뻐용❤️❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>1732156243</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>1410864570</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>pretty_rang</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>랑랑💛</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>18041089691511122</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>꺼내와야지요🎄🎄 신중히 생각해서 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>1732155006</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>1264223803</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>cheese_ko</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>cheese_ko</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>18103974985457826</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>😍😍😍😍 리원이 닮아 아주예뻐😍😍😍😍👏👏</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>1732153757</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>1972765427</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>kimig0102</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>Ssam Hwang</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>17843774736361864</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>너무이쁘다햐✨️✨️✨️벌써부터설레어요헤헤🎄</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>1732152663</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>65480313225</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>daerangmom</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>대랑맘 | 살림팁 • 살림템 • 아이있는집</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>DCnWsemT-3e</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>17956944674847172</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>아우예쁘다아🎄✨</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>1732152453</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>2131308110</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>hye.zz</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>𝙃𝙮𝙚𝙟𝙞𝙣ᰔᩚ</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>18062727307763405</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>@twomunhee 태양맘 날씬날씬 넘 예쁘셔요. 저두 태양맘처럼 운동 열심히 해야는데.. 저는 와플이 산책이 오운완이라니🙄</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>@twomunhee</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>1731977181</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>17888340339056986</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>리원님 사진 자주보니 좋네요^^</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>1731973636</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>3161035347</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>twomunhee</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>7년차 육아맘 희야의 가족과 함께 먹고 놀고 쓰고 사는 이야기</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>18036727304464744</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>@white_and_star_yy 아니 이게 누구신가욥😍</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>@white_and_star_yy</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>17905735368063245</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>1731928264</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>18017883242338360</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>@tsh1218 😍😍😍</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>@tsh1218</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>18046016219283557</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>1731928233</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>17905735368063245</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>헉 몸매 무엇? 👍👍👍</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>1731928147</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>38896522186</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>white_and_star_yy</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>white_and_star</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>18046016219283557</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>@on._.riwon 이뿌세용!!!!!</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>@on._.riwon</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>17928272909973979</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>1731927454</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>8295201190</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>tsh1218</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>탁선희</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>18005842676680512</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>@jjj_0304 😍😍😍</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>@jjj_0304</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>17913788867935768</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>1731923480</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>17928272909973979</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>@tsh1218 남편이 아마 이 댓글보고 뿜을거에요🤔🤍</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>@tsh1218</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>17945409272875029</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>1731923000</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>18048306269026186</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>@im.eini 아니 더 이뿌신분이 왜그러실까요♥️</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>@im.eini</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>1731922934</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>2986157371</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>on._.riwon</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>온리원</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>17945409272875029</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>헉쓰~~~~~ 몸매가 뭐.. 아이돌이신가요? 😍😍😍</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>1731916647</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>8295201190</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>tsh1218</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>탁선희</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>17913788867935768</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>어쩜이리예쁠까요~~~😍😍😍</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>1731912651</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>1936330424</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>jjj_0304</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>🅙🅤🅝 🅜🅘-🅞🅚💋</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>DCgFF41z6RA</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>17971165715802043</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>힝 넘 이뽀요 ❤️</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="n">
+        <v>1</v>
+      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>1731909661</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>6356752668</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>im.eini</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>아인이홈✨</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
         <is>
           <t>False</t>
         </is>
